--- a/docs/artefacts/[23.I.PM2-Template.v3].Risk_Log.(ProjectName).(dd-mm-yyyy).(vx.x).xlsx
+++ b/docs/artefacts/[23.I.PM2-Template.v3].Risk_Log.(ProjectName).(dd-mm-yyyy).(vx.x).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\artefacts for cover page\OPM²_Artefacts.v3.0.1 with Cover Page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redelectrica-my.sharepoint.com/personal/adrian_sanchez_ree_es/Documents/Documentos/Code/github.com/adrisanchu/pm2/docs/artefacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFCF7D-F0FD-4C3C-8295-79E4B373C9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{92DFCF7D-F0FD-4C3C-8295-79E4B373C9B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC22BE1C-ED68-4DA9-A7C8-68E8628540B2}"/>
   <bookViews>
-    <workbookView xWindow="-15870" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Log" sheetId="1" r:id="rId1"/>
+    <sheet name="Logs" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Risk Log'!$B$2:$P$2</definedName>
@@ -567,7 +568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>Category</t>
   </si>
@@ -739,12 +740,119 @@
 &lt;The PM² Methodology originated from the European Commission. PM² Alliance provides many guidelines and templates to facilitate the management and documentation of your projects.&gt; 
 </t>
   </si>
+  <si>
+    <t>Action Details                   
+(effort &amp;  responsible)</t>
+  </si>
+  <si>
+    <t>RISK</t>
+  </si>
+  <si>
+    <t>Requested by</t>
+  </si>
+  <si>
+    <t>Date Identified</t>
+  </si>
+  <si>
+    <t>Action Details
+(effort &amp;  responsible)</t>
+  </si>
+  <si>
+    <t>Size (Effort)</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Target Delivery Date</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Decided by</t>
+  </si>
+  <si>
+    <t>Decision Date</t>
+  </si>
+  <si>
+    <t>Actual Delivery Date</t>
+  </si>
+  <si>
+    <t>Traceability and Comments</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>Identified by</t>
+  </si>
+  <si>
+    <t>People present</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Decision Owner</t>
+  </si>
+  <si>
+    <t>Application Date</t>
+  </si>
+  <si>
+    <t>Decision communicated to:</t>
+  </si>
+  <si>
+    <t>DECISION</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Issue Owner</t>
+  </si>
+  <si>
+    <t>ISSUES</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>identified_by_role</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>RELATIONSHIPS !!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -791,8 +899,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,6 +939,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1352,6 +1477,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1667,11 +1805,11 @@
   </sheetPr>
   <dimension ref="A1:Q745"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F17:F18"/>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="4" customWidth="1"/>
@@ -9957,4 +10095,315 @@
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC18ADC4-E067-46B5-9F5B-A16F9AA4CA97}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="65"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="65"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="65"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
+      <c r="B14" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="65"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="65"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="65"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="65"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>